--- a/biology/Zoologie/Faune_endémique_des_Mascareignes/Faune_endémique_des_Mascareignes.xlsx
+++ b/biology/Zoologie/Faune_endémique_des_Mascareignes/Faune_endémique_des_Mascareignes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_des_Mascareignes</t>
+          <t>Faune_endémique_des_Mascareignes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faune endémique des Mascareignes regroupe les espèces animales endémiques de l'archipel de l'océan Indien que l'on appelle les Mascareignes et dont les noms scientifiques sont ici classés selon l'ordre alphabétique.
 Attention, la liste n'inclut pas les espèces qui sont endémiques à une seule des trois îles principales ou aux îlots qui n'entourent que l'une d'entre elles :
